--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>288695.7370942862</v>
+        <v>286257.2639945396</v>
       </c>
     </row>
     <row r="7">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>171.7548911386189</v>
+        <v>263.0779478039848</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>208.3328837404167</v>
+        <v>273.9080531001782</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>143.916471539769</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>268.5166429237576</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>226.1265775300252</v>
+        <v>225.9761332534898</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>17.81028347014107</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1069,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>93.50637905244173</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>246.6857009458093</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>87.84875757168818</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>49.52209563932735</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>15.61065333879111</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>121.6761271205435</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>200.0899877799061</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.24347904696366</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>22.10695458833874</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>120.7871326503968</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135544</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>76.94227792014347</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>147.2606364488714</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>20.89983420622114</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>175.5375697851122</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>105.3305008047052</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583821</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>22.04658882052618</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>147.4507120583059</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U46" t="n">
-        <v>149.9095691544923</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1806.001177156637</v>
+        <v>1399.056131943215</v>
       </c>
       <c r="C2" t="n">
-        <v>1437.038660216225</v>
+        <v>1030.093615002804</v>
       </c>
       <c r="D2" t="n">
-        <v>1078.772961609475</v>
+        <v>671.8279163960533</v>
       </c>
       <c r="E2" t="n">
-        <v>692.9847090112303</v>
+        <v>671.8279163960533</v>
       </c>
       <c r="F2" t="n">
-        <v>281.9988042216228</v>
+        <v>671.8279163960533</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,19 +4328,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X2" t="n">
-        <v>2403.03827352421</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y2" t="n">
-        <v>2192.601017220758</v>
+        <v>1785.655972007337</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>623.1279902937553</v>
+        <v>1779.976759662911</v>
       </c>
       <c r="C4" t="n">
-        <v>623.1279902937553</v>
+        <v>1611.040576735004</v>
       </c>
       <c r="D4" t="n">
-        <v>623.1279902937553</v>
+        <v>1611.040576735004</v>
       </c>
       <c r="E4" t="n">
-        <v>623.1279902937553</v>
+        <v>1611.040576735004</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>1611.040576735004</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1611.040576735004</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415546</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>2772.860547947305</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335303</v>
+        <v>2518.176059741419</v>
       </c>
       <c r="W4" t="n">
-        <v>1071.910120335303</v>
+        <v>2228.758889704458</v>
       </c>
       <c r="X4" t="n">
-        <v>843.9205694372854</v>
+        <v>2000.769338806441</v>
       </c>
       <c r="Y4" t="n">
-        <v>623.1279902937553</v>
+        <v>1779.976759662911</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1865.035106955552</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C5" t="n">
-        <v>1865.035106955552</v>
+        <v>758.7856865549923</v>
       </c>
       <c r="D5" t="n">
-        <v>1506.769408348802</v>
+        <v>758.7856865549923</v>
       </c>
       <c r="E5" t="n">
-        <v>1120.981155750557</v>
+        <v>758.7856865549923</v>
       </c>
       <c r="F5" t="n">
-        <v>709.9952509609498</v>
+        <v>751.8401858057888</v>
       </c>
       <c r="G5" t="n">
-        <v>294.9228008059462</v>
+        <v>336.7677356507853</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2641.774278995485</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.634947019674</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>943.7005868594143</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C7" t="n">
-        <v>774.7644039315074</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>1548.361223971664</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W7" t="n">
-        <v>1258.944053934704</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X7" t="n">
-        <v>1164.493166002944</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y7" t="n">
-        <v>943.7005868594143</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066532</v>
+        <v>2336.007922691473</v>
       </c>
       <c r="X8" t="n">
-        <v>2257.256030805452</v>
+        <v>1962.542164430393</v>
       </c>
       <c r="Y8" t="n">
-        <v>1867.11669882964</v>
+        <v>1962.542164430393</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,10 +4884,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>793.5839474470786</v>
+        <v>794.6070935315613</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6477645191717</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
         <v>477.7578170212613</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1787.441772018417</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1565.675156587944</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1565.675156587944</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V10" t="n">
-        <v>1310.990668382057</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W10" t="n">
-        <v>1021.573498345096</v>
+        <v>1243.389223573109</v>
       </c>
       <c r="X10" t="n">
-        <v>793.5839474470786</v>
+        <v>1015.399672675091</v>
       </c>
       <c r="Y10" t="n">
-        <v>793.5839474470786</v>
+        <v>794.6070935315613</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,37 +5033,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179085</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="C13" t="n">
-        <v>593.6115863900017</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D13" t="n">
-        <v>593.6115863900017</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E13" t="n">
-        <v>445.6984928076085</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>298.8085453096982</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>298.8085453096982</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>714.1835459462596</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>847.6442739835331</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>2022.176527098168</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1767.492038892281</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1478.07486885532</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1250.085317957303</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>1029.292738813773</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5495,25 +5495,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>198.027470314254</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>198.027470314254</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>215.8238677453423</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>215.8238677453423</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6005,34 +6005,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.6374272687974</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C25" t="n">
-        <v>631.7012443408905</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408905</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2302.197907186053</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2082.596442208995</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1793.521215553192</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V25" t="n">
-        <v>1538.836727347305</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W25" t="n">
-        <v>1249.419557310345</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X25" t="n">
-        <v>1021.430006412328</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y25" t="n">
-        <v>800.6374272687974</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V28" t="n">
-        <v>1975.033022579363</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W28" t="n">
-        <v>1685.615852542402</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>1457.626301644385</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,46 +6455,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>808.8888553856875</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>639.9526724577806</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>489.8360330454449</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E31" t="n">
-        <v>341.9229394630518</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F31" t="n">
-        <v>341.9229394630518</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797756</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602305</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396418</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359457</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.329899359457</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>990.5373202159273</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6686,28 +6686,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.9487421954783</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C34" t="n">
-        <v>491.0125592675714</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675714</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1062.389786169248</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y34" t="n">
-        <v>841.597207025718</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>718.5507239167111</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1893.082977031346</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1638.398488825459</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1348.981318788498</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1120.991767890481</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>900.1991887469509</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>239.1668345148345</v>
+        <v>147.8437778494687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.831980181939</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>18.6185857256804</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856251</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>18.49466557218872</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0033420516642</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>264.0775198009054</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>110.003342051665</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>37.12601365260461</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>44.73700564187209</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>104.0840080815011</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>104.8770068749566</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>146.3469868924067</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>43.04708356698259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>60.19363748756366</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>126.5688841976862</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>78.25894333073128</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U46" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>981408.7301534981</v>
+        <v>981408.7301534975</v>
       </c>
     </row>
     <row r="3">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019036</v>
+        <v>335917.9865019035</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389278</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389277</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="E2" t="n">
-        <v>363215.9698605025</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="F2" t="n">
+        <v>363215.9698605027</v>
+      </c>
+      <c r="G2" t="n">
         <v>363215.9698605026</v>
       </c>
-      <c r="G2" t="n">
-        <v>363215.9698605028</v>
-      </c>
       <c r="H2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="I2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="J2" t="n">
-        <v>363215.9698605029</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="K2" t="n">
-        <v>363215.9698605025</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="L2" t="n">
-        <v>363215.9698605029</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="M2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="N2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="O2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="P2" t="n">
         <v>363215.9698605028</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48409.12727549204</v>
+        <v>48409.12727549181</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26439,22 +26439,22 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680579</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.9762168058</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1149169.827062574</v>
+        <v>-1149356.220451114</v>
       </c>
       <c r="C6" t="n">
-        <v>170570.8448893769</v>
+        <v>170570.8448893777</v>
       </c>
       <c r="D6" t="n">
         <v>170570.8448893773</v>
       </c>
       <c r="E6" t="n">
-        <v>-75095.99798756553</v>
+        <v>-75130.73591300135</v>
       </c>
       <c r="F6" t="n">
-        <v>250316.4638197897</v>
+        <v>250281.7258943541</v>
       </c>
       <c r="G6" t="n">
-        <v>250316.4638197898</v>
+        <v>250281.7258943539</v>
       </c>
       <c r="H6" t="n">
-        <v>250316.4638197898</v>
+        <v>250281.725894354</v>
       </c>
       <c r="I6" t="n">
-        <v>250316.4638197897</v>
+        <v>250281.7258943538</v>
       </c>
       <c r="J6" t="n">
-        <v>32785.26142251249</v>
+        <v>32750.52349707649</v>
       </c>
       <c r="K6" t="n">
-        <v>250316.4638197896</v>
+        <v>250281.7258943541</v>
       </c>
       <c r="L6" t="n">
-        <v>250316.4638197899</v>
+        <v>250281.7258943539</v>
       </c>
       <c r="M6" t="n">
-        <v>165261.4358842779</v>
+        <v>165226.6979588423</v>
       </c>
       <c r="N6" t="n">
-        <v>250316.4638197899</v>
+        <v>250281.7258943541</v>
       </c>
       <c r="O6" t="n">
-        <v>250316.4638197898</v>
+        <v>250281.7258943542</v>
       </c>
       <c r="P6" t="n">
-        <v>250316.4638197899</v>
+        <v>250281.7258943542</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483757</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>177.9050549156369</v>
+        <v>112.3298855558754</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>1.504576483162225</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>17.69519528185532</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>68.48118685729528</v>
+        <v>68.63163113383061</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>149.4365376284868</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>132.2032763365954</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>136.0481407176713</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>261.3922111457248</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>140.2469296921145</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>270.9123449977999</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29697,7 +29697,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32078,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191325</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>351.9532034556938</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
